--- a/data/trans_bre/P34A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 9,21</t>
+          <t>-5,73; 8,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 11,95</t>
+          <t>-0,76; 11,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 10,03</t>
+          <t>-3,28; 10,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 1,79</t>
+          <t>-9,23; 1,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 28,53</t>
+          <t>-15,0; 29,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 93,24</t>
+          <t>-3,52; 89,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 45,18</t>
+          <t>-11,63; 46,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 7,28</t>
+          <t>-30,9; 5,11</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 19,92</t>
+          <t>5,45; 19,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 14,66</t>
+          <t>1,67; 14,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 12,42</t>
+          <t>-1,93; 11,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 13,63</t>
+          <t>1,69; 13,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 75,9</t>
+          <t>15,72; 75,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 100,26</t>
+          <t>6,29; 100,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 55,45</t>
+          <t>-7,63; 51,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 62,49</t>
+          <t>4,74; 57,91</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 9,22</t>
+          <t>-8,4; 8,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 17,0</t>
+          <t>2,87; 16,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 14,4</t>
+          <t>-3,79; 14,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 36,51</t>
+          <t>0,84; 35,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 21,69</t>
+          <t>-17,51; 19,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 72,67</t>
+          <t>10,22; 71,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 41,65</t>
+          <t>-9,69; 41,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 435,74</t>
+          <t>1,17; 381,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,65</t>
+          <t>-4,42; 5,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,97; 9,53</t>
+          <t>0,92; 9,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,89</t>
+          <t>-0,44; 8,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 3,0</t>
+          <t>-23,54; 2,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 10,36</t>
+          <t>-8,97; 11,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 40,29</t>
+          <t>3,36; 40,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 24,49</t>
+          <t>-1,1; 23,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 7,94</t>
+          <t>-57,61; 6,58</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 9,55</t>
+          <t>-3,71; 10,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 14,09</t>
+          <t>3,61; 13,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 12,67</t>
+          <t>2,29; 12,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 10,12</t>
+          <t>-10,22; 9,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 20,29</t>
+          <t>-6,61; 21,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,58; 56,83</t>
+          <t>11,7; 56,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 33,53</t>
+          <t>5,24; 33,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 24,16</t>
+          <t>-22,31; 23,94</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,18; 30,69</t>
+          <t>20,62; 31,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,35; 23,22</t>
+          <t>13,1; 23,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,57; 34,74</t>
+          <t>24,03; 34,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,32; 42,98</t>
+          <t>23,02; 43,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>85,91; 200,53</t>
+          <t>87,86; 207,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,22; 275,35</t>
+          <t>80,07; 267,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>104,65; 245,75</t>
+          <t>108,16; 249,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>88,18; 557,83</t>
+          <t>88,32; 578,41</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 7,59</t>
+          <t>2,75; 7,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,49</t>
+          <t>6,31; 10,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,33</t>
+          <t>6,31; 11,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 13,58</t>
+          <t>0,51; 13,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 19,0</t>
+          <t>6,46; 19,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,0; 48,24</t>
+          <t>26,39; 48,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,22; 34,75</t>
+          <t>17,76; 34,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 56,49</t>
+          <t>2,73; 56,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
